--- a/migforecasting/cities10/4/d14.xlsx
+++ b/migforecasting/cities10/4/d14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities10\4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1125,7 +1125,7 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,25 +1990,28 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
+      <c r="B51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>158</v>
+      </c>
+      <c r="E51" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" t="s">
-        <v>158</v>
-      </c>
-      <c r="D52" t="s">
-        <v>158</v>
-      </c>
-      <c r="E52" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2016,7 +2019,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2024,19 +2039,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="E54" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2044,19 +2059,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F55" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2064,19 +2079,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" t="s">
-        <v>169</v>
-      </c>
-      <c r="E56" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2084,7 +2087,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="C57" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2092,19 +2107,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="E58" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2112,19 +2127,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D59" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E59" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F59" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2132,19 +2147,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2152,19 +2167,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D61" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E61" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F61" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2172,19 +2187,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
-      </c>
-      <c r="C62" t="s">
-        <v>184</v>
-      </c>
-      <c r="D62" t="s">
-        <v>185</v>
-      </c>
-      <c r="E62" t="s">
-        <v>186</v>
-      </c>
-      <c r="F62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2192,7 +2195,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="C63" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" t="s">
+        <v>191</v>
+      </c>
+      <c r="E63" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,19 +2215,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D64" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F64" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2220,40 +2235,25 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="E65" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="F65" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>199</v>
-      </c>
-      <c r="C66" t="s">
-        <v>161</v>
-      </c>
-      <c r="D66" t="s">
-        <v>161</v>
-      </c>
-      <c r="E66" t="s">
-        <v>161</v>
-      </c>
-      <c r="F66" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
@@ -2269,25 +2269,40 @@
       <c r="A69" s="1">
         <v>67</v>
       </c>
+      <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69" t="s">
+        <v>200</v>
+      </c>
+      <c r="F69" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C70" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E70" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F70" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,19 +2310,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2315,19 +2330,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D72" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E72" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="F72" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,19 +2350,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D73" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E73" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,19 +2370,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E74" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,19 +2390,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E75" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F75" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,19 +2410,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D76" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E76" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2415,19 +2430,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E77" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F77" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2435,38 +2450,23 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C78" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D78" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
-      <c r="B79" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" t="s">
-        <v>237</v>
-      </c>
-      <c r="D79" t="s">
-        <v>237</v>
-      </c>
-      <c r="E79" t="s">
-        <v>237</v>
-      </c>
-      <c r="F79" t="s">
-        <v>237</v>
-      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>

--- a/migforecasting/cities10/4/d14.xlsx
+++ b/migforecasting/cities10/4/d14.xlsx
@@ -759,7 +759,7 @@
    ным законом от 29.11.2007 №282-ФЗ «Об официальном статистическом учёте и системе государственной статистики в Российской Федерации» (п.5 ст.4, ч.1 ст.9).</t>
   </si>
   <si>
-    <t xml:space="preserve"> Ульяновск</t>
+    <t>Ульяновск</t>
   </si>
 </sst>
 </file>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
